--- a/artfynd/Klammájávrrie artfynd.xlsx
+++ b/artfynd/Klammájávrrie artfynd.xlsx
@@ -413,14 +413,2600 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Taxonsorteringsordning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Valideringsstatus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rödlistade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TaxonId</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Artnamn</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt namn</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Auktor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Antal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Enhet</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Ålder-Stadium</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kön</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Aktivitet</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Metod</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Huvudlokal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Lokalnamn</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Ost</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Noggrannhet</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Län</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Kommun</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Provins</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Socken</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Externid</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Startdatum</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Starttid</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Slutdatum</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Sluttid</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Publik kommentar</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Ej återfunnen</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Osäker artbestämning</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Bestämningsmetod</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Ospontan</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Biotop</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Biotop-beskrivning</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Substratnamn</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt Substratnamn</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Art som substrat beskrivning</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Substrat</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Antal substrat</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Substrat-beskrivning</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Offentlig samling</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Privat samling</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Samlings-nummer</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Artbestämd av</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Bestämningsår</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Bekräftad av</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Bekräftelseår</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Rapportör</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Observatörer</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Projektnamn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>16885606</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4600 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>680074</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7258237</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16885435</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79601</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6464</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Luddlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nephroma resupinatum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(L.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>5700 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>680789</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7257467</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2014-09-17</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2014-09-17</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>111249100</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90500</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Klammájávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>679519</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7257438</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>16885607</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5200 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>680464</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7257847</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>16885616</v>
+      </c>
+      <c r="B6" t="n">
+        <v>91779</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>5200 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>680049</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7257433</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16885617</v>
+      </c>
+      <c r="B7" t="n">
+        <v>91779</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>5100 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>679943</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7257551</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16885612</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91779</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>5200 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>680356</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7257749</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111249077</v>
+      </c>
+      <c r="B9" t="n">
+        <v>74596</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Klammájávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>679519</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7257438</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111249103</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Klammájávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>679546</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7257502</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16885610</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91779</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>5300 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>680424</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7257705</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>16885605</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91779</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>4600 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>679944</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7258134</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16885618</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91779</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>4700 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>679902</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7257996</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111249105</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Klammájávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>679844</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7257787</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111249101</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Klammájávrrie, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>679531</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7257447</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16885614</v>
+      </c>
+      <c r="B16" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>5100 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>680218</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7257782</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16885611</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90469</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>5200 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>680387</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7257743</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>104793596</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96801</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>221945</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lycopodium annotinum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Åbäcken, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>680145</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7258259</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Johanna Kühne</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Johanna Kühne</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16885608</v>
+      </c>
+      <c r="B19" t="n">
+        <v>91779</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>5500 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>680725</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7257657</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55910592</v>
+      </c>
+      <c r="B20" t="n">
+        <v>97763</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>219790</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dactylorhiza maculata</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Domarselnäset, 1400 m NNO, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>680080</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7256894</v>
+      </c>
+      <c r="S20" t="n">
+        <v>100</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2015-07-17</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2015-07-17</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Skogsbilväg</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Ulf Zethraeus</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Ulf Zethraeus, Allis Zethraeus, jan Ahlm</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Pite lappmarks flora (2007-2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16885615</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91773</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>5200 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>680197</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7257533</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16885609</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78484</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>5400 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>680617</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7257743</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16885613</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91822</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>5200 m SO Hedberg, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>680354</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7257750</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2014-09-15</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Sveaskog naturvärdesinventering, inventerare: Oskar Wallströmer</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Sveaskog genom Johan Ekenstedt</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>